--- a/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 5.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 5.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,7 +598,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
